--- a/URS/DbLayouts/L2-業務作業/FacShareAppl.xlsx
+++ b/URS/DbLayouts/L2-業務作業/FacShareAppl.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L2-業務作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.10.16\St1Share(NAS)\SKL\DB\GenTables\L2-業務作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22992" windowHeight="9084"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -179,52 +179,52 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>KeyinSeq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">MainApplNo = </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>KeyinSeq asc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>登錄順序(由1起編)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FacShareAppl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主核准號碼(登錄順序=1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MainApplNo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">CustNo = </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MainApplNo asc, KeyinSeq asc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否合併申報(Y/N)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定為Y，合併申報時至第一筆登錄戶號申報</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>findMainApplNo</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>KeyinSeq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">MainApplNo = </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>KeyinSeq asc</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>登錄順序(由1起編)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FacShareAppl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主核准號碼(登錄順序=1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MainApplNo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CustNo = </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MainApplNo asc, KeyinSeq asc</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否合併申報(Y/N)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>固定為Y，合併申報時至第一筆登錄戶號申報</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -792,7 +792,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -812,7 +812,7 @@
       </c>
       <c r="B1" s="25"/>
       <c r="C1" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>34</v>
@@ -962,10 +962,10 @@
         <v>2</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>28</v>
@@ -1019,10 +1019,10 @@
         <v>5</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>28</v>
@@ -1042,7 +1042,7 @@
         <v>42</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D16" s="11" t="s">
         <v>29</v>
@@ -1052,7 +1052,7 @@
       </c>
       <c r="F16" s="11"/>
       <c r="G16" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -1159,9 +1159,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1185,13 +1185,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1199,10 +1199,10 @@
         <v>33</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>
